--- a/PinOut.xlsx
+++ b/PinOut.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leova\Documents\GitHub\lidar-2023-2A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FF0ADC1-2542-409B-AF97-2861258ECFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6866DE95-F654-4D52-AF52-FA3F2BEBCEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{922F1EF1-1721-4794-BF99-66261437EA18}"/>
+    <workbookView xWindow="12420" yWindow="1410" windowWidth="7410" windowHeight="6990" xr2:uid="{922F1EF1-1721-4794-BF99-66261437EA18}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>RX_Debug</t>
-  </si>
-  <si>
-    <t>TX_Debug</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>RX_Lidar</t>
   </si>
@@ -108,6 +102,9 @@
   </si>
   <si>
     <t>Pin Nano</t>
+  </si>
+  <si>
+    <t>NC</t>
   </si>
 </sst>
 </file>
@@ -182,12 +179,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15455126-3376-4105-9CFC-791E938DB3CD}" name="Tableau2" displayName="Tableau2" ref="B2:D9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15455126-3376-4105-9CFC-791E938DB3CD}" name="Tableau2" displayName="Tableau2" ref="B2:D9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="B2:D9" xr:uid="{15455126-3376-4105-9CFC-791E938DB3CD}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{85AC3253-91C5-4173-AE50-65EFD955E5EE}" name="Fonction" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{E2D6B014-D189-4103-A105-47E5D2B8F1CE}" name="Pin Nucleo" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{DCA34C0F-E34F-4128-A5E6-A0BCDD2E9C4F}" name="Pin Nano" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{85AC3253-91C5-4173-AE50-65EFD955E5EE}" name="Fonction" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E2D6B014-D189-4103-A105-47E5D2B8F1CE}" name="Pin Nucleo" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DCA34C0F-E34F-4128-A5E6-A0BCDD2E9C4F}" name="Pin Nano" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -493,7 +490,7 @@
   <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,13 +501,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -518,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -529,65 +526,65 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
